--- a/medicine/Œil et vue/Neige_visuelle/Neige_visuelle.xlsx
+++ b/medicine/Œil et vue/Neige_visuelle/Neige_visuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La neige visuelle, appelée « visual snow » en anglais[1], est un phénomène visuel persistant faisant apparaître de nombreux petits points clignotants dans le champ de vision, de manière continue et quel que soit le degré de luminosité perçu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La neige visuelle, appelée « visual snow » en anglais, est un phénomène visuel persistant faisant apparaître de nombreux petits points clignotants dans le champ de vision, de manière continue et quel que soit le degré de luminosité perçu.
 Les personnes qui en souffrent décrivent un voile neigeux semblable à celui produit par une télévision à tube cathodique mal réglée. Le symptôme est plus marqué dans la pénombre, mais peut être vu dans toutes les conditions d'éclairage et persiste les yeux fermés. La densité, ainsi que luminosité des points varient d'une personne à l'autre ; dans certains cas, ce phénomène peut affecter sévèrement la vie quotidienne, pouvant rendre difficile voire impossible de simples tâches comme lire ou conduire. La neige visuelle est souvent accompagnée d'autres phénomènes optiques ou non (image rémanente, phosphène, corps flottants, migraine, acouphène…) qui perturbent d'autant plus le champ visuel. Elle est décrite comme « incapacitante » et « débilitante » dans la littérature médicale à son sujet. 
 Peu d'informations sont disponibles à ce sujet, qui est souvent considéré comme une aura visuelle accompagnant une migraine — bien que cette croyance ait été récemment démentie à la suite de recherches effectuées sur le sujet. L'ignorance entourant ce sujet est source de nombreuses erreurs de diagnostic.
 La neige visuelle est à présent considérée en tant que syndrome à part entière, et non plus en tant que symptôme.    
@@ -514,7 +526,9 @@
           <t>Causes et recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En mai 2014, les résultats de la première étude menée sur la neige visuelle décrivent un hypermétabolisme dans le lobule lingual droit du cerveau et le lobe gauche antérieur du cervelet. Il a été suggéré qu'identifier l'endroit précis du dysfonctionnement cérébral menant à ce syndrome pourrait ainsi ouvrir des possibilités quant aux possibles traitements. 
 La neige visuelle peut se manifester à travers de nombreux phénomènes ophtalmologiques qui peuvent être diagnostiqués grâce à la présence de signes cliniques et le témoignage des personnes touchées.
@@ -549,9 +563,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diagnostic actuel pour le syndrome de la neige visuelle :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diagnostic actuel pour le syndrome de la neige visuelle :
 Points lumineux dynamiques dans l'intégrité du champ de vision
 En addition, au moins un des symptômes suivants
 Palinopsie
@@ -560,10 +576,7 @@
 Acouphène
 Nyctalopie
 Les symptômes ne sont pas obligatoirement reliés à une migraine accompagnée d'aura visuelle
-Les symptômes ne sont pas attribués à un autre désordre (ophtalmologique, surconsommation de drogue)
-Comorbidité
-La migraine ainsi que la migraine accompagnée d'aura sont communément des expériences allant de pair avec le phénomène de neige visuelle. Cependant, les migraines peuvent être source d'aggravation des symptômes additionnels présents. Ce phénomène pourrait être un bias poussant les personnes atteintes de neige visuelle et de migraines à participer aux études menées, à cause de la souffrance et l'impairment additionnels causés par cette comorbidité.
-</t>
+Les symptômes ne sont pas attribués à un autre désordre (ophtalmologique, surconsommation de drogue)</t>
         </is>
       </c>
     </row>
@@ -588,14 +601,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comorbidité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La migraine ainsi que la migraine accompagnée d'aura sont communément des expériences allant de pair avec le phénomène de neige visuelle. Cependant, les migraines peuvent être source d'aggravation des symptômes additionnels présents. Ce phénomène pourrait être un bias poussant les personnes atteintes de neige visuelle et de migraines à participer aux études menées, à cause de la souffrance et l'impairment additionnels causés par cette comorbidité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neige_visuelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neige_visuelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de traitement établi pour le syndrome de neige visuelle, bien qu'un traitement médicamenteux semble être la meilleure option. Il est difficile de soigner ce syndrome avec un traitement classique, mais il est possible de réduire les symptômes et d'améliorer la qualité de vie des personnes atteintes.
 Concernant le syndrome post hallucinatoire persistant, le clonazépam est recommandé. Pour les migraines accompagnées d'auras persistantes, l'acetazolamide, l'acide valproïque ou encore la lamotrigine sont communément administrés.    
-Pour la neige visuelle à proprement parler, la lamotrigine a été testée avec un certain succès[2].
+Pour la neige visuelle à proprement parler, la lamotrigine a été testée avec un certain succès.
 </t>
         </is>
       </c>
